--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.9302811539507</v>
+        <v>414.726645195126</v>
       </c>
       <c r="AB2" t="n">
-        <v>437.7427250027017</v>
+        <v>567.4472924042598</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.9651737042163</v>
+        <v>513.2909192344733</v>
       </c>
       <c r="AD2" t="n">
-        <v>319930.2811539507</v>
+        <v>414726.645195126</v>
       </c>
       <c r="AE2" t="n">
-        <v>437742.7250027017</v>
+        <v>567447.2924042598</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5335604434451e-06</v>
+        <v>2.210879518368266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>395965.1737042163</v>
+        <v>513290.9192344733</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.4679676527494</v>
+        <v>303.5349100166202</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.8094173390322</v>
+        <v>415.3098548998803</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.1918168071352</v>
+        <v>375.6732652392773</v>
       </c>
       <c r="AD3" t="n">
-        <v>234467.9676527494</v>
+        <v>303534.9100166202</v>
       </c>
       <c r="AE3" t="n">
-        <v>320809.4173390322</v>
+        <v>415309.8548998804</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.937415221796832e-06</v>
+        <v>2.793102580830142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.69010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>290191.8168071352</v>
+        <v>375673.2652392773</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.4240614636397</v>
+        <v>279.4056629729386</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.9114841488312</v>
+        <v>382.2951545874648</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.4336161880573</v>
+        <v>345.8094415882557</v>
       </c>
       <c r="AD4" t="n">
-        <v>210424.0614636397</v>
+        <v>279405.6629729386</v>
       </c>
       <c r="AE4" t="n">
-        <v>287911.4841488312</v>
+        <v>382295.1545874648</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.074896706277914e-06</v>
+        <v>2.991304744620482e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.6484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>260433.6161880573</v>
+        <v>345809.4415882557</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.7809628060031</v>
+        <v>279.762564315302</v>
       </c>
       <c r="AB5" t="n">
-        <v>288.3998123108285</v>
+        <v>382.7834827494623</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.8753389956467</v>
+        <v>346.251164395845</v>
       </c>
       <c r="AD5" t="n">
-        <v>210780.9628060031</v>
+        <v>279762.5643153019</v>
       </c>
       <c r="AE5" t="n">
-        <v>288399.8123108285</v>
+        <v>382783.4827494623</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.074686632702307e-06</v>
+        <v>2.99100188902216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.6484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>260875.3389956467</v>
+        <v>346251.164395845</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.402820869838</v>
+        <v>338.1596328648652</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.0311159095492</v>
+        <v>462.6849282358133</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.765690110477</v>
+        <v>418.5269280673617</v>
       </c>
       <c r="AD2" t="n">
-        <v>262402.820869838</v>
+        <v>338159.6328648652</v>
       </c>
       <c r="AE2" t="n">
-        <v>359031.1159095492</v>
+        <v>462684.9282358133</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.77855608954703e-06</v>
+        <v>2.603739207679154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>324765.690110477</v>
+        <v>418526.9280673617</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.8981892897255</v>
+        <v>268.1522368751806</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.877765588668</v>
+        <v>366.8977205343916</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.6438174343331</v>
+        <v>331.8815170307734</v>
       </c>
       <c r="AD3" t="n">
-        <v>200898.1892897255</v>
+        <v>268152.2368751806</v>
       </c>
       <c r="AE3" t="n">
-        <v>274877.7655886679</v>
+        <v>366897.7205343916</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.147103567651709e-06</v>
+        <v>3.143278851254197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>248643.8174343331</v>
+        <v>331881.5170307734</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.7896903843693</v>
+        <v>267.0437379698243</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.36106848284</v>
+        <v>365.3810234285629</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.2718717715871</v>
+        <v>330.5095713680273</v>
       </c>
       <c r="AD4" t="n">
-        <v>199789.6903843693</v>
+        <v>267043.7379698243</v>
       </c>
       <c r="AE4" t="n">
-        <v>273361.06848284</v>
+        <v>365381.0234285629</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161784617686935e-06</v>
+        <v>3.164771356220037e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>247271.8717715871</v>
+        <v>330509.5713680272</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.1576206740707</v>
+        <v>236.5287313223</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.2360928332054</v>
+        <v>323.6290451061865</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.44934993833</v>
+        <v>292.7423432575658</v>
       </c>
       <c r="AD2" t="n">
-        <v>182157.6206740707</v>
+        <v>236528.7313223</v>
       </c>
       <c r="AE2" t="n">
-        <v>249236.0928332054</v>
+        <v>323629.0451061865</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317636550039865e-06</v>
+        <v>3.58566981554713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.14322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>225449.34993833</v>
+        <v>292742.3432575658</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.5475266172505</v>
+        <v>249.6339098566347</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.8743116967571</v>
+        <v>341.5601285365268</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.6449037033268</v>
+        <v>308.9621092517537</v>
       </c>
       <c r="AD2" t="n">
-        <v>185547.5266172505</v>
+        <v>249633.9098566347</v>
       </c>
       <c r="AE2" t="n">
-        <v>253874.3116967571</v>
+        <v>341560.1285365268</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.245975815358428e-06</v>
+        <v>3.394329703012022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229644.9037033268</v>
+        <v>308962.1092517537</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.5669523858731</v>
+        <v>247.6533356252573</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.1644026566195</v>
+        <v>338.8502194963892</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.1936245785979</v>
+        <v>306.5108301270248</v>
       </c>
       <c r="AD3" t="n">
-        <v>183566.9523858731</v>
+        <v>247653.3356252573</v>
       </c>
       <c r="AE3" t="n">
-        <v>251164.4026566195</v>
+        <v>338850.2194963892</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.279639805062193e-06</v>
+        <v>3.445205887604928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.7265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>227193.6245785979</v>
+        <v>306510.8301270248</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.2920290121239</v>
+        <v>244.1506520372502</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.2105315496929</v>
+        <v>334.0576932837864</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.1897369597674</v>
+        <v>302.1756958897985</v>
       </c>
       <c r="AD2" t="n">
-        <v>176292.0290121239</v>
+        <v>244150.6520372502</v>
       </c>
       <c r="AE2" t="n">
-        <v>241210.5315496929</v>
+        <v>334057.6932837864</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293055607576909e-06</v>
+        <v>3.624146848962901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>218189.7369597674</v>
+        <v>302175.6958897985</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.3587202861256</v>
+        <v>356.5411128120679</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.5991696492883</v>
+        <v>487.8352800332382</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.9890032827755</v>
+        <v>441.2769655879811</v>
       </c>
       <c r="AD2" t="n">
-        <v>280358.7202861256</v>
+        <v>356541.1128120679</v>
       </c>
       <c r="AE2" t="n">
-        <v>383599.1696492883</v>
+        <v>487835.2800332382</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.713499924508804e-06</v>
+        <v>2.498088045987104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.19010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>346989.0032827755</v>
+        <v>441276.965587981</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.1993402252632</v>
+        <v>273.9074605902167</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.1310341689405</v>
+        <v>374.7722715238548</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.2048442413331</v>
+        <v>339.004531925804</v>
       </c>
       <c r="AD3" t="n">
-        <v>206199.3402252632</v>
+        <v>273907.4605902167</v>
       </c>
       <c r="AE3" t="n">
-        <v>282131.0341689405</v>
+        <v>374772.2715238548</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.102881691003333e-06</v>
+        <v>3.065762384510443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>255204.8442413331</v>
+        <v>339004.531925804</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.2716033620827</v>
+        <v>261.676222783739</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.7569313132186</v>
+        <v>358.0369523529034</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.3436382195589</v>
+        <v>323.8664081283602</v>
       </c>
       <c r="AD4" t="n">
-        <v>202271.6033620827</v>
+        <v>261676.222783739</v>
       </c>
       <c r="AE4" t="n">
-        <v>276756.9313132186</v>
+        <v>358036.9523529034</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.145930965703657e-06</v>
+        <v>3.128523331843498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>250343.6382195589</v>
+        <v>323866.4081283602</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.8713162174329</v>
+        <v>247.7042331922545</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.4761143278869</v>
+        <v>338.919859792997</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.8573413114132</v>
+        <v>306.5738240514651</v>
       </c>
       <c r="AD2" t="n">
-        <v>180871.3162174329</v>
+        <v>247704.2331922546</v>
       </c>
       <c r="AE2" t="n">
-        <v>247476.1143278869</v>
+        <v>338919.8597929971</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.249818181319986e-06</v>
+        <v>3.604737203541268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.57552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>223857.3413114132</v>
+        <v>306573.8240514651</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.137088114127</v>
+        <v>291.9175393438925</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.4107404218287</v>
+        <v>399.4144558232321</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.8810136167625</v>
+        <v>361.2949007411717</v>
       </c>
       <c r="AD2" t="n">
-        <v>226137.088114127</v>
+        <v>291917.5393438925</v>
       </c>
       <c r="AE2" t="n">
-        <v>309410.7404218287</v>
+        <v>399414.4558232321</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004298592556964e-06</v>
+        <v>2.976069130174384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.15885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279881.0136167625</v>
+        <v>361294.9007411717</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.6170246732803</v>
+        <v>257.397386394491</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.178866704369</v>
+        <v>352.1824596360289</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.1568836365311</v>
+        <v>318.570659979658</v>
       </c>
       <c r="AD3" t="n">
-        <v>191617.0246732803</v>
+        <v>257397.386394491</v>
       </c>
       <c r="AE3" t="n">
-        <v>262178.866704369</v>
+        <v>352182.4596360289</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.225815332889212e-06</v>
+        <v>3.304986755107018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>237156.8836365311</v>
+        <v>318570.659979658</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.6681798174212</v>
+        <v>319.536318299149</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.7117505594159</v>
+        <v>437.2036876443474</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.7175062956177</v>
+        <v>395.4775813147996</v>
       </c>
       <c r="AD2" t="n">
-        <v>252668.1798174212</v>
+        <v>319536.318299149</v>
       </c>
       <c r="AE2" t="n">
-        <v>345711.7505594159</v>
+        <v>437203.6876443474</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.850514509198473e-06</v>
+        <v>2.721075142594143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>312717.5062956177</v>
+        <v>395477.5813147996</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.7384280450761</v>
+        <v>263.5211361636805</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.1861967380273</v>
+        <v>360.5612442311733</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.4954439266287</v>
+        <v>326.1497851326339</v>
       </c>
       <c r="AD3" t="n">
-        <v>196738.4280450761</v>
+        <v>263521.1361636805</v>
       </c>
       <c r="AE3" t="n">
-        <v>269186.1967380273</v>
+        <v>360561.2442311733</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.182269376027485e-06</v>
+        <v>3.208901591441637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>243495.4439266287</v>
+        <v>326149.7851326339</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.1504132895023</v>
+        <v>263.9331214081066</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.7498931249571</v>
+        <v>361.1249406181034</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.0053419215429</v>
+        <v>326.6596831275482</v>
       </c>
       <c r="AD4" t="n">
-        <v>197150.4132895023</v>
+        <v>263933.1214081066</v>
       </c>
       <c r="AE4" t="n">
-        <v>269749.893124957</v>
+        <v>361124.9406181034</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.181928114592098e-06</v>
+        <v>3.208399786130552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>244005.3419215429</v>
+        <v>326659.6831275482</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.881694912931</v>
+        <v>393.5310547956306</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.2573177616283</v>
+        <v>538.4465505362167</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.0531105928164</v>
+        <v>487.0579674675195</v>
       </c>
       <c r="AD2" t="n">
-        <v>307881.694912931</v>
+        <v>393531.0547956306</v>
       </c>
       <c r="AE2" t="n">
-        <v>421257.3177616282</v>
+        <v>538446.5505362167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599275626694352e-06</v>
+        <v>2.313788007281535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.15364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>381053.1105928164</v>
+        <v>487057.9674675195</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.1210645745132</v>
+        <v>296.6064340405572</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.1253045417918</v>
+        <v>405.8300084066435</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.3365035470319</v>
+        <v>367.0981619903068</v>
       </c>
       <c r="AD3" t="n">
-        <v>228121.0645745132</v>
+        <v>296606.4340405572</v>
       </c>
       <c r="AE3" t="n">
-        <v>312125.3045417918</v>
+        <v>405830.0084066435</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.987677522233322e-06</v>
+        <v>2.875717191284059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>282336.5035470319</v>
+        <v>367098.1619903068</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.5572817606721</v>
+        <v>276.1279025727364</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.9890296858384</v>
+        <v>377.8103782033251</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.8855152738121</v>
+        <v>341.7526859677951</v>
       </c>
       <c r="AD4" t="n">
-        <v>207557.2817606721</v>
+        <v>276127.9025727364</v>
       </c>
       <c r="AE4" t="n">
-        <v>283989.0296858384</v>
+        <v>377810.378203325</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.100612408263553e-06</v>
+        <v>3.039108279435993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>256885.5152738121</v>
+        <v>341752.6859677951</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.6695749149811</v>
+        <v>266.2654565799828</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.9332094322741</v>
+        <v>364.3161444956301</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.5985311988305</v>
+        <v>329.5463229858866</v>
       </c>
       <c r="AD2" t="n">
-        <v>201669.5749149811</v>
+        <v>266265.4565799828</v>
       </c>
       <c r="AE2" t="n">
-        <v>275933.209432274</v>
+        <v>364316.1444956301</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.16174088132074e-06</v>
+        <v>3.246253021009409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.32552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>249598.5311988305</v>
+        <v>329546.3229858866</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.0915941737485</v>
+        <v>250.7727271847675</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.6187289301238</v>
+        <v>343.118308645952</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.3182748007375</v>
+        <v>310.3715788384554</v>
       </c>
       <c r="AD3" t="n">
-        <v>186091.5941737485</v>
+        <v>250772.7271847675</v>
       </c>
       <c r="AE3" t="n">
-        <v>254618.7289301238</v>
+        <v>343118.308645952</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266254210949401e-06</v>
+        <v>3.403199080074319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>230318.2748007375</v>
+        <v>310371.5788384554</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.2765541953428</v>
+        <v>240.0567492774138</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.5576023395579</v>
+        <v>328.4562349175381</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.4082452040738</v>
+        <v>297.108832848327</v>
       </c>
       <c r="AD2" t="n">
-        <v>177276.5541953428</v>
+        <v>240056.7492774138</v>
       </c>
       <c r="AE2" t="n">
-        <v>242557.602339558</v>
+        <v>328456.2349175381</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309327204737103e-06</v>
+        <v>3.541923092369658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>219408.2452040738</v>
+        <v>297108.832848327</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.3452472000823</v>
+        <v>240.5207357202205</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.3880793729354</v>
+        <v>329.0910816382232</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.9685854819861</v>
+        <v>297.683090689003</v>
       </c>
       <c r="AD2" t="n">
-        <v>179345.2472000823</v>
+        <v>240520.7357202205</v>
       </c>
       <c r="AE2" t="n">
-        <v>245388.0793729353</v>
+        <v>329091.0816382232</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.312094393369153e-06</v>
+        <v>3.612601882732204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>221968.5854819861</v>
+        <v>297683.090689003</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.3625661690014</v>
+        <v>258.1094460515073</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.6212406515837</v>
+        <v>353.1567310727801</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.4159854035172</v>
+        <v>319.4519483177783</v>
       </c>
       <c r="AD2" t="n">
-        <v>185362.5661690014</v>
+        <v>258109.4460515073</v>
       </c>
       <c r="AE2" t="n">
-        <v>253621.2406515836</v>
+        <v>353156.7310727801</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.151075839328427e-06</v>
+        <v>3.505556955832177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.82552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>229415.9854035172</v>
+        <v>319451.9483177783</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.602316137302</v>
+        <v>310.1917360357241</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.3614829795195</v>
+        <v>424.4180179376555</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.5957554812329</v>
+        <v>383.9121579801142</v>
       </c>
       <c r="AD2" t="n">
-        <v>235602.316137302</v>
+        <v>310191.7360357242</v>
       </c>
       <c r="AE2" t="n">
-        <v>322361.4829795195</v>
+        <v>424418.0179376554</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.918595569432478e-06</v>
+        <v>2.834496266393428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.70572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>291595.7554812329</v>
+        <v>383912.1579801142</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.4157026216456</v>
+        <v>260.7079268808458</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.0081413422775</v>
+        <v>356.7120871803646</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.6206976774196</v>
+        <v>322.6679862284286</v>
       </c>
       <c r="AD3" t="n">
-        <v>194415.7026216456</v>
+        <v>260707.9268808459</v>
       </c>
       <c r="AE3" t="n">
-        <v>266008.1413422775</v>
+        <v>356712.0871803646</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199721729848096e-06</v>
+        <v>3.24982665950973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>240620.6976774196</v>
+        <v>322667.9862284286</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.1851285293909</v>
+        <v>375.3896160818858</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.0440949182601</v>
+        <v>513.6246337442803</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.1507637541476</v>
+        <v>464.6050195764265</v>
       </c>
       <c r="AD2" t="n">
-        <v>290185.1285293909</v>
+        <v>375389.6160818858</v>
       </c>
       <c r="AE2" t="n">
-        <v>397044.0949182601</v>
+        <v>513624.6337442803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.651224182890907e-06</v>
+        <v>2.397856596251182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>359150.7637541476</v>
+        <v>464605.0195764265</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.3879265181688</v>
+        <v>281.0908959116691</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.9127280080194</v>
+        <v>384.6009646414659</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.0031623877074</v>
+        <v>347.8951883669278</v>
       </c>
       <c r="AD3" t="n">
-        <v>221387.9265181688</v>
+        <v>281090.8959116691</v>
       </c>
       <c r="AE3" t="n">
-        <v>302912.7280080194</v>
+        <v>384600.9646414659</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043307486109751e-06</v>
+        <v>2.967227820730985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>274003.1623877074</v>
+        <v>347895.1883669277</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>205.0959593454747</v>
+        <v>273.2424812165587</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.6213397714857</v>
+        <v>373.8624174079965</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.8392329583015</v>
+        <v>338.1815130097749</v>
       </c>
       <c r="AD4" t="n">
-        <v>205095.9593454747</v>
+        <v>273242.4812165587</v>
       </c>
       <c r="AE4" t="n">
-        <v>280621.3397714857</v>
+        <v>373862.4174079965</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.122450095145757e-06</v>
+        <v>3.082156265389097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>253839.2329583015</v>
+        <v>338181.5130097749</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.7327862797648</v>
+        <v>283.9197490980679</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.4926744778025</v>
+        <v>388.4715263712914</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.6274087031737</v>
+        <v>351.3963491176261</v>
       </c>
       <c r="AD2" t="n">
-        <v>205732.7862797648</v>
+        <v>283919.7490980679</v>
       </c>
       <c r="AE2" t="n">
-        <v>281492.6744778025</v>
+        <v>388471.5263712914</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908767229723307e-06</v>
+        <v>3.181801249426189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>254627.4087031737</v>
+        <v>351396.3491176261</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.0547578080701</v>
+        <v>243.5097447600247</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.3588630881827</v>
+        <v>333.1807756722533</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.8467189619541</v>
+        <v>301.3824700643482</v>
       </c>
       <c r="AD2" t="n">
-        <v>180054.7578080701</v>
+        <v>243509.7447600247</v>
       </c>
       <c r="AE2" t="n">
-        <v>246358.8630881827</v>
+        <v>333180.7756722533</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.300227139311801e-06</v>
+        <v>3.500730914782921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>222846.7189619541</v>
+        <v>301382.4700643483</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.0960111517057</v>
+        <v>243.5509981036602</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.415307732914</v>
+        <v>333.2372203169846</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.8977766090128</v>
+        <v>301.433527711407</v>
       </c>
       <c r="AD3" t="n">
-        <v>180096.0111517058</v>
+        <v>243550.9981036602</v>
       </c>
       <c r="AE3" t="n">
-        <v>246415.307732914</v>
+        <v>333237.2203169846</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.305191451549488e-06</v>
+        <v>3.508286134449752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.75260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>222897.7766090128</v>
+        <v>301433.5277114069</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.7828702539837</v>
+        <v>275.1126394782358</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.0341780484206</v>
+        <v>376.4212504471826</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.6400389505628</v>
+        <v>340.4961346150458</v>
       </c>
       <c r="AD2" t="n">
-        <v>209782.8702539837</v>
+        <v>275112.6394782358</v>
       </c>
       <c r="AE2" t="n">
-        <v>287034.1780484206</v>
+        <v>376421.2504471826</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.078936257065903e-06</v>
+        <v>3.10366617036241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>259640.0389505628</v>
+        <v>340496.1346150458</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.0829814019363</v>
+        <v>254.3274097716132</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.7116769064187</v>
+        <v>347.9819821827997</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.0205975666646</v>
+        <v>314.7710701991566</v>
       </c>
       <c r="AD3" t="n">
-        <v>189082.9814019362</v>
+        <v>254327.4097716132</v>
       </c>
       <c r="AE3" t="n">
-        <v>258711.6769064187</v>
+        <v>347981.9821827997</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.241693146133536e-06</v>
+        <v>3.346647670577126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>234020.5975666646</v>
+        <v>314771.0701991566</v>
       </c>
     </row>
   </sheetData>
